--- a/zadanie 4/wyniki.xlsx
+++ b/zadanie 4/wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B90956D-7D69-45C8-83A6-F784636C4E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B52AD05-35BD-42C4-9177-F330BD86DCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5955" yWindow="2475" windowWidth="38700" windowHeight="15435" xr2:uid="{060F147D-DCB0-4875-9BF8-39B2A7483057}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="13">
   <si>
     <t>Sortowanie</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Na podstawie tych pomiarów, to według szybkości: 1. Quicksort 2. Przez Wstawianie 3. Przez Wybór 4. Bąbelkowe</t>
+  </si>
+  <si>
+    <t>Różnią się głównie sposobem, bąbelkowe jest najwolniejsze bo porównuję każdą liczbę do siebie (idzie to po kolei)</t>
+  </si>
+  <si>
+    <t>A Quicksort, po prostu dzieli na te mniejsze i większe na lewo i prawo, po czym porównuje te części</t>
   </si>
 </sst>
 </file>
@@ -5105,7 +5111,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5557,12 +5563,34 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+    </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F28" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
